--- a/Tickers_YTD_Returns.xlsx
+++ b/Tickers_YTD_Returns.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Dropbox\Documents\Shudi\data_pipeline\pipeline_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shudizhao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8FD985-E04A-4D7B-8799-3E6C6C87C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13ABC332-3BA4-AE46-B1FA-49CFB65D6CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-21710" windowWidth="51420" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Covered Call &amp; MLP Tickers" sheetId="1" r:id="rId1"/>
+    <sheet name="Global &amp; Diversified Tickers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$1</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -49,7 +41,7 @@
     <t>Adjusted Total YTD (%)</t>
   </si>
   <si>
-    <t>2024-11-21</t>
+    <t>2024-12-24</t>
   </si>
   <si>
     <t>FTHI</t>
@@ -62,9 +54,6 @@
   </si>
   <si>
     <t>AMLP</t>
-  </si>
-  <si>
-    <t>2024-11-20</t>
   </si>
   <si>
     <t>MLPR</t>
@@ -125,6 +114,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -471,21 +461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -513,19 +493,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10.07</v>
+        <v>10.96</v>
       </c>
       <c r="D2">
-        <v>7.78</v>
+        <v>9.39</v>
       </c>
       <c r="E2">
-        <v>17.84</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F2">
-        <v>18.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -533,19 +513,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7.62</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="D3">
         <v>10.58</v>
       </c>
       <c r="E3">
-        <v>18.21</v>
+        <v>18.95</v>
       </c>
       <c r="F3">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -553,19 +533,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11.85</v>
+        <v>5.75</v>
       </c>
       <c r="D4">
-        <v>7.46</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="E4">
-        <v>19.3</v>
+        <v>14.78</v>
       </c>
       <c r="F4">
-        <v>20.260000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -573,96 +553,96 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>15.37</v>
+        <v>14.36</v>
       </c>
       <c r="D5">
-        <v>8.7200000000000006</v>
+        <v>6.48</v>
       </c>
       <c r="E5">
-        <v>24.08</v>
+        <v>20.84</v>
       </c>
       <c r="F5">
-        <v>25.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6">
-        <v>20.91</v>
+        <v>20.64</v>
       </c>
       <c r="D6">
         <v>11.38</v>
       </c>
       <c r="E6">
-        <v>32.29</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="F6">
-        <v>33.909999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>28.39</v>
+      </c>
+      <c r="D7">
+        <v>4.09</v>
+      </c>
+      <c r="E7">
+        <v>32.47</v>
+      </c>
+      <c r="F7">
+        <v>33.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>34.56</v>
-      </c>
-      <c r="D7">
-        <v>3.13</v>
-      </c>
-      <c r="E7">
-        <v>37.69</v>
-      </c>
-      <c r="F7">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>6.71</v>
+      </c>
+      <c r="D8">
+        <v>6.93</v>
+      </c>
+      <c r="E8">
+        <v>13.64</v>
+      </c>
+      <c r="F8">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="D8">
-        <v>6.2</v>
-      </c>
-      <c r="E8">
-        <v>14.65</v>
-      </c>
-      <c r="F8">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9">
-        <v>12.43</v>
+        <v>13.22</v>
       </c>
       <c r="D9">
-        <v>9.57</v>
+        <v>10.86</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>24.09</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>25.29</v>
       </c>
     </row>
   </sheetData>
@@ -674,21 +654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,212 +678,207 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>18.78</v>
+      </c>
+      <c r="D2">
+        <v>1.98</v>
+      </c>
+      <c r="E2">
+        <v>20.76</v>
+      </c>
+      <c r="F2">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>18.55</v>
-      </c>
-      <c r="D2">
-        <v>0.93</v>
-      </c>
-      <c r="E2">
-        <v>19.48</v>
-      </c>
-      <c r="F2">
-        <v>19.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
       <c r="C3">
-        <v>16.52</v>
+        <v>9.67</v>
       </c>
       <c r="D3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E3">
+        <v>12.21</v>
+      </c>
+      <c r="F3">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>-2.39</v>
+      </c>
+      <c r="D4">
+        <v>1.02</v>
+      </c>
+      <c r="E4">
+        <v>-1.37</v>
+      </c>
+      <c r="F4">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3.18</v>
+      </c>
+      <c r="D5">
+        <v>6.13</v>
+      </c>
+      <c r="E5">
+        <v>9.32</v>
+      </c>
+      <c r="F5">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>4.53</v>
+      </c>
+      <c r="D6">
+        <v>4.54</v>
+      </c>
+      <c r="E6">
+        <v>9.06</v>
+      </c>
+      <c r="F6">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>3.76</v>
+      </c>
+      <c r="D7">
+        <v>2.88</v>
+      </c>
+      <c r="E7">
+        <v>6.64</v>
+      </c>
+      <c r="F7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>-6.92</v>
+      </c>
+      <c r="D8">
+        <v>1.43</v>
+      </c>
+      <c r="E8">
+        <v>-5.5</v>
+      </c>
+      <c r="F8">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>-7.09</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>16.52</v>
-      </c>
-      <c r="F3">
-        <v>16.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>15.43</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>15.43</v>
-      </c>
-      <c r="F4">
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>12.52</v>
-      </c>
-      <c r="D5">
-        <v>0.91</v>
-      </c>
-      <c r="E5">
-        <v>13.43</v>
-      </c>
-      <c r="F5">
-        <v>13.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>-0.34</v>
-      </c>
-      <c r="D6">
-        <v>1.43</v>
-      </c>
-      <c r="E6">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F6">
-        <v>10.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>7.74</v>
-      </c>
-      <c r="D7">
-        <v>1.54</v>
-      </c>
-      <c r="E7">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F7">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>7.17</v>
-      </c>
-      <c r="D8">
-        <v>1.91</v>
-      </c>
-      <c r="E8">
-        <v>9.09</v>
-      </c>
-      <c r="F8">
-        <v>9.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>5.03</v>
-      </c>
-      <c r="D9">
-        <v>2.25</v>
-      </c>
       <c r="E9">
-        <v>7.28</v>
+        <v>-7.09</v>
       </c>
       <c r="F9">
-        <v>7.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-7.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10">
-        <v>3.36</v>
+        <v>2.12</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.36</v>
+        <v>2.12</v>
       </c>
       <c r="F10">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>-3.74</v>
+        <v>9.91</v>
       </c>
       <c r="D11">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-1.89</v>
+        <v>9.91</v>
       </c>
       <c r="F11">
-        <v>-1.91</v>
+        <v>9.91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
-      <sortCondition descending="1" ref="F1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>